--- a/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="861">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3854,6 +3854,10 @@
   </si>
   <si>
     <t>ShutdownClients</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4830,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4963,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
@@ -3668,10 +3668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InputCell</t>
   </si>
   <si>
@@ -3857,6 +3853,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4834,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4998,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -5008,13 +5008,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>813</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>814</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>815</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5033,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5057,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -5085,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -5113,7 +5113,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>396</v>
@@ -5143,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>396</v>
@@ -5169,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>512</v>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="5"/>
@@ -5199,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>512</v>
@@ -5229,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>512</v>
@@ -5241,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5259,7 +5259,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>512</v>
@@ -5287,7 +5287,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>512</v>
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5317,7 +5317,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>512</v>
@@ -5345,7 +5345,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>512</v>
@@ -5373,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>512</v>
@@ -5385,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5403,7 +5403,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>512</v>
@@ -5433,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>396</v>
@@ -5445,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5463,7 +5463,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>396</v>
@@ -5491,7 +5491,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5511,7 +5511,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5871,7 +5871,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -6019,7 +6019,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>317</v>
@@ -6056,7 +6056,7 @@
         <v>808</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
@@ -6109,7 +6109,7 @@
         <v>321</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H46" s="11">
         <v>1</v>
@@ -6156,7 +6156,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -6262,7 +6262,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
@@ -6289,7 +6289,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
@@ -6315,8 +6315,8 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>809</v>
+      <c r="H54" s="11" t="s">
+        <v>860</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6466,7 +6466,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6483,7 +6483,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>310</v>
@@ -6564,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6677,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -6725,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6750,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -6775,7 +6775,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
@@ -6800,7 +6800,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
@@ -6894,7 +6894,7 @@
         <v>13</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="5"/>
@@ -6919,7 +6919,7 @@
         <v>13</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
@@ -7003,7 +7003,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="5"/>
@@ -7022,7 +7022,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>310</v>
@@ -7056,7 +7056,7 @@
         <v>283</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -7081,7 +7081,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="5"/>
@@ -7109,7 +7109,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
@@ -7163,7 +7163,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
@@ -7178,7 +7178,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>355</v>
@@ -7190,7 +7190,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="5"/>
@@ -7217,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="5"/>
@@ -7277,7 +7277,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="5"/>
@@ -7295,7 +7295,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>310</v>
@@ -7377,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -7424,7 +7424,7 @@
         <v>390</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H100" s="20">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -7478,7 +7478,7 @@
         <v>390</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H102" s="20">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -7507,7 +7507,7 @@
         <v>390</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H103" s="20">
         <v>1</v>
@@ -7550,7 +7550,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7567,7 +7567,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>310</v>
@@ -7636,7 +7636,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>370</v>
@@ -7648,7 +7648,7 @@
         <v>4</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="5"/>
@@ -7661,7 +7661,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>370</v>
@@ -7732,7 +7732,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>377</v>
@@ -7755,7 +7755,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>379</v>
@@ -7767,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -7792,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="5"/>
@@ -7817,7 +7817,7 @@
         <v>4</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -7830,7 +7830,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>379</v>
@@ -7876,7 +7876,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>370</v>
@@ -7899,7 +7899,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>370</v>
@@ -7922,7 +7922,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>310</v>
@@ -7945,7 +7945,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>306</v>
@@ -7989,7 +7989,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="5"/>
@@ -8112,7 +8112,7 @@
         <v>56</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -8160,7 +8160,7 @@
         <v>60</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -8331,7 +8331,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -8379,7 +8379,7 @@
         <v>60</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -8406,7 +8406,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -8456,7 +8456,7 @@
         <v>60</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -8481,7 +8481,7 @@
         <v>56</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -8529,7 +8529,7 @@
         <v>60</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -8554,7 +8554,7 @@
         <v>56</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -8602,7 +8602,7 @@
         <v>60</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -8841,7 +8841,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>19</v>
@@ -8864,10 +8864,10 @@
         <v>160</v>
       </c>
       <c r="D161" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="F161" s="20" t="s">
         <v>578</v>
@@ -8876,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
@@ -8889,10 +8889,10 @@
         <v>161</v>
       </c>
       <c r="D162" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="F162" s="20" t="s">
         <v>184</v>
@@ -8912,7 +8912,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>585</v>
@@ -8935,10 +8935,10 @@
         <v>163</v>
       </c>
       <c r="D164" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="F164" s="20" t="s">
         <v>99</v>
@@ -8961,7 +8961,7 @@
         <v>797</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F165" s="20">
         <v>3</v>
@@ -9002,7 +9002,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>19</v>
@@ -9024,7 +9024,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>396</v>
@@ -9046,7 +9046,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>396</v>
@@ -9058,7 +9058,7 @@
         <v>56</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I169" s="20"/>
       <c r="J169" s="20"/>
@@ -9070,7 +9070,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>396</v>
@@ -9092,7 +9092,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>396</v>
@@ -9104,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I171" s="20"/>
       <c r="J171" s="20"/>
@@ -9116,7 +9116,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>396</v>
@@ -9166,7 +9166,7 @@
         <v>19</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G174" s="20" t="s">
         <v>2</v>
@@ -9194,7 +9194,7 @@
         <v>56</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.80_UserCanDeleteActionFromActionSet.xlsx
@@ -3643,9 +3643,6 @@
     <t>"Write file testing"</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>"test"</t>
   </si>
   <si>
@@ -3774,10 +3771,6 @@
     <t>"Run-command"</t>
   </si>
   <si>
-    <t>"C:\Nform\test.bat"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"{{Site id}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3857,6 +3850,14 @@
   </si>
   <si>
     <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\test.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\runcommand.bat"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4834,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4907,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4967,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4998,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -5008,13 +5009,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>813</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>814</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5033,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5057,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -5085,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -5113,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>396</v>
@@ -5143,7 +5144,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>396</v>
@@ -5169,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>512</v>
@@ -5181,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="5"/>
@@ -5199,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>512</v>
@@ -5229,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>512</v>
@@ -5241,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5259,7 +5260,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>512</v>
@@ -5287,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>512</v>
@@ -5299,7 +5300,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5317,7 +5318,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>512</v>
@@ -5345,7 +5346,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>512</v>
@@ -5373,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>512</v>
@@ -5385,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5403,7 +5404,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>512</v>
@@ -5433,7 +5434,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>396</v>
@@ -5445,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5463,7 +5464,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>396</v>
@@ -5491,7 +5492,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5511,7 +5512,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5804,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5831,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5871,7 +5872,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -5977,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -6004,7 +6005,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
@@ -6019,7 +6020,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>317</v>
@@ -6044,7 +6045,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>317</v>
@@ -6053,10 +6054,10 @@
         <v>319</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
@@ -6109,7 +6110,7 @@
         <v>321</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H46" s="11">
         <v>1</v>
@@ -6156,7 +6157,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -6175,7 +6176,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>310</v>
@@ -6250,7 +6251,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>317</v>
@@ -6262,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
@@ -6277,7 +6278,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>317</v>
@@ -6289,7 +6290,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
@@ -6316,7 +6317,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6360,7 +6361,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>317</v>
@@ -6466,7 +6467,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6483,7 +6484,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>310</v>
@@ -6564,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6677,7 +6678,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -6725,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6750,7 +6751,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -6775,7 +6776,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
@@ -6800,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
@@ -6894,7 +6895,7 @@
         <v>13</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="5"/>
@@ -6919,7 +6920,7 @@
         <v>13</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
@@ -7003,7 +7004,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="5"/>
@@ -7022,7 +7023,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>310</v>
@@ -7056,7 +7057,7 @@
         <v>283</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -7081,7 +7082,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="5"/>
@@ -7109,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
@@ -7163,7 +7164,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
@@ -7178,7 +7179,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>355</v>
@@ -7190,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="5"/>
@@ -7217,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="5"/>
@@ -7277,7 +7278,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="5"/>
@@ -7295,7 +7296,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>310</v>
@@ -7377,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -7424,7 +7425,7 @@
         <v>390</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H100" s="20">
         <v>1</v>
@@ -7433,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -7478,7 +7479,7 @@
         <v>390</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H102" s="20">
         <v>1</v>
@@ -7487,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -7507,7 +7508,7 @@
         <v>390</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H103" s="20">
         <v>1</v>
@@ -7550,7 +7551,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7567,7 +7568,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>310</v>
@@ -7636,7 +7637,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>370</v>
@@ -7648,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="5"/>
@@ -7661,7 +7662,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>370</v>
@@ -7732,7 +7733,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>377</v>
@@ -7755,7 +7756,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>379</v>
@@ -7767,7 +7768,7 @@
         <v>4</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -7792,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="5"/>
@@ -7817,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -7830,7 +7831,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>379</v>
@@ -7876,7 +7877,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>370</v>
@@ -7899,7 +7900,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>370</v>
@@ -7922,7 +7923,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>310</v>
@@ -7945,7 +7946,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>306</v>
@@ -7989,7 +7990,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="5"/>
@@ -8112,7 +8113,7 @@
         <v>56</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -8160,7 +8161,7 @@
         <v>60</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -8258,7 +8259,7 @@
         <v>56</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -8306,7 +8307,7 @@
         <v>60</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -8331,7 +8332,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -8379,7 +8380,7 @@
         <v>60</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -8406,7 +8407,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -8456,7 +8457,7 @@
         <v>60</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -8481,7 +8482,7 @@
         <v>56</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -8529,7 +8530,7 @@
         <v>60</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -8554,7 +8555,7 @@
         <v>56</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -8602,7 +8603,7 @@
         <v>60</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -8638,7 +8639,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>310</v>
@@ -8661,7 +8662,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>306</v>
@@ -8684,7 +8685,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -8841,7 +8842,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>19</v>
@@ -8864,10 +8865,10 @@
         <v>160</v>
       </c>
       <c r="D161" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F161" s="20" t="s">
         <v>578</v>
@@ -8876,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
@@ -8889,10 +8890,10 @@
         <v>161</v>
       </c>
       <c r="D162" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F162" s="20" t="s">
         <v>184</v>
@@ -8912,7 +8913,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>585</v>
@@ -8935,10 +8936,10 @@
         <v>163</v>
       </c>
       <c r="D164" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F164" s="20" t="s">
         <v>99</v>
@@ -8961,7 +8962,7 @@
         <v>797</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F165" s="20">
         <v>3</v>
@@ -9002,7 +9003,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>19</v>
@@ -9024,7 +9025,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>396</v>
@@ -9046,7 +9047,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>396</v>
@@ -9058,7 +9059,7 @@
         <v>56</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I169" s="20"/>
       <c r="J169" s="20"/>
@@ -9070,7 +9071,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>396</v>
@@ -9092,7 +9093,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>396</v>
@@ -9104,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I171" s="20"/>
       <c r="J171" s="20"/>
@@ -9116,7 +9117,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>396</v>
@@ -9166,7 +9167,7 @@
         <v>19</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G174" s="20" t="s">
         <v>2</v>
@@ -9194,7 +9195,7 @@
         <v>56</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
